--- a/biology/Zoologie/Caccobius/Caccobius.xlsx
+++ b/biology/Zoologie/Caccobius/Caccobius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caccobius est un genre de scarabées de la tribu des Onthophagini.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Caccophilus Jekel, 1872
 Histeridium  Motschulsky, 1859</t>
@@ -542,12 +556,14 @@
           <t>Sous-genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Caccobius C.G. Thomson, 1859
 Cacconemus
 Caccophilus Jekel, 1872
-Megaponerophilus, Janssens, 1949[1]
+Megaponerophilus, Janssens, 1949
 Tomogonus d'Orbigny, 1904</t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Caccobius obtusus Fåhraeus, 1857
 Caccobius postlutatus d’Orbigny, 1905
